--- a/products.xlsx
+++ b/products.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28618"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3616ef8e5006747a/Documents/cameras/MySite/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="11_F25DC773A252ABDACC10483B899965525BDE58FB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7CA3FE4-4226-4E10-9845-60FBE1254EA5}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="11_F25DC773A252ABDACC10483B899965525BDE58FB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1321815E-8728-4776-97AA-5C18ECE3FB79}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34380" yWindow="3315" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -67,7 +68,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +128,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -394,11 +399,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46" customWidth="1"/>
     <col min="2" max="2" width="75.140625" customWidth="1"/>
@@ -406,7 +411,7 @@
     <col min="4" max="4" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -420,7 +425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="152.25">
+    <row r="2" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -440,4 +445,16 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B855558A-D956-4B70-B93E-8CBA12198EAE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>